--- a/output_fin_incomestatement_nk_v1/all_schools_combined.xlsx
+++ b/output_fin_incomestatement_nk_v1/all_schools_combined.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neelabhkashyap/Franklin_Templton_Industry_Project/output_fin_incomestatement_nk_v1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197A3FA0-18B5-124B-9F81-607ADA097AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F82CFA8-060B-BE44-9E07-4F3B9E1DEC51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -625,7 +625,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BH20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
